--- a/data/georgia_census/imereti/vani/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/vani/healthcare_staff.xlsx
@@ -1373,13 +1373,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC630D61-31B5-4FC6-9171-9D4239F1885D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0713534-7CBB-4C0B-AAFF-FDC3B8EED69C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0D216CA-888A-4A43-AB36-80F1D224FA83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9F6E23-1D69-4792-A4F1-F91ECD8046BB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492B759A-C067-4C90-A8CF-1204F450DBB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD028F5-9D5E-4ACD-AD3A-2CFD487B88D8}"/>
 </file>